--- a/biology/Botanique/Érable_de_Tartarie/Érable_de_Tartarie.xlsx
+++ b/biology/Botanique/Érable_de_Tartarie/Érable_de_Tartarie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Tartarie</t>
+          <t>Érable_de_Tartarie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acer tataricum subsp. tataricum
 L'Érable de Tartarie, Acer tataricum subsp. tataricum, est une sous-espèce de Acer tataricum, espèce d'érable de la section Ginnala. Elle fait partie de la famille des Aceraceae selon la classification classique, ou de celle des Sapindaceae selon la classification phylogénétique.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rable_de_Tartarie</t>
+          <t>Érable_de_Tartarie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fruits de l'érable de Tartarie
